--- a/equipe.xlsx
+++ b/equipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peate\Desktop\keeper 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patremblay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E017C19-4195-4708-9568-080AC79CD7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593ED9E3-FFFE-49C0-9454-869D3AF9461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FC5720-C0C8-479A-8EE8-B51D73E2F3D0}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="29010" windowHeight="15345" xr2:uid="{78FC5720-C0C8-479A-8EE8-B51D73E2F3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Le Shield-Maiden de Limoilou</t>
   </si>
   <si>
-    <t>Les Citadelles de Saint-Honoré</t>
-  </si>
-  <si>
     <t>Les Papetiers d'la Whitebirch</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Les Garnottes de L'Anse-de-Roche</t>
+  </si>
+  <si>
+    <t>Équipe Maxime Cliche</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
